--- a/模板整理/03 模块/政策表.xlsx
+++ b/模板整理/03 模块/政策表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E66286-C5D7-C34A-B31D-C06C8B5BF366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BED3D-1579-7148-B4D6-A158D08CBB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11060" yWindow="740" windowWidth="18340" windowHeight="16960" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特价机整理" sheetId="2" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="851">
   <si>
     <t>型号</t>
   </si>
@@ -2797,6 +2797,10 @@
   </si>
   <si>
     <t>R2000RC9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17176,9 +17180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F2A2C0-B2E1-A747-96BB-51E2E2A2466C}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="A31:N53"/>
+    <sheetView topLeftCell="E1" zoomScale="91" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -18364,7 +18368,7 @@
         <v>3636</v>
       </c>
       <c r="E42" s="83">
-        <v>0.70028877899999997</v>
+        <v>0.75</v>
       </c>
       <c r="F42" s="83">
         <v>4.4999999999999998E-2</v>
@@ -19143,8 +19147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794F5890-65EA-8F4B-B100-53427A44469E}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -19222,7 +19226,7 @@
         <v>820</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M2" s="83" t="s">
         <v>807</v>
@@ -19254,7 +19258,7 @@
         <v>820</v>
       </c>
       <c r="L3" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M3" s="83" t="s">
         <v>807</v>
@@ -19284,7 +19288,7 @@
         <v>820</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M4" s="83" t="s">
         <v>807</v>
@@ -19314,7 +19318,7 @@
         <v>820</v>
       </c>
       <c r="L5" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M5" s="83" t="s">
         <v>807</v>
@@ -19344,7 +19348,7 @@
         <v>820</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M6" s="83" t="s">
         <v>807</v>
@@ -19374,7 +19378,7 @@
         <v>820</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M7" s="83" t="s">
         <v>807</v>
@@ -19412,7 +19416,7 @@
         <v>820</v>
       </c>
       <c r="L8" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M8" s="83" t="s">
         <v>807</v>
@@ -19446,7 +19450,7 @@
         <v>820</v>
       </c>
       <c r="L9" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M9" s="83" t="s">
         <v>807</v>
@@ -19480,7 +19484,7 @@
         <v>820</v>
       </c>
       <c r="L10" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M10" s="83" t="s">
         <v>807</v>
@@ -19514,7 +19518,7 @@
         <v>820</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M11" s="83" t="s">
         <v>807</v>
@@ -19548,7 +19552,7 @@
         <v>820</v>
       </c>
       <c r="L12" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M12" s="83" t="s">
         <v>807</v>
@@ -19557,7 +19561,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="83" t="s">
-        <v>11</v>
+        <v>844</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="83">
@@ -19567,7 +19571,7 @@
         <v>3636</v>
       </c>
       <c r="E13" s="83">
-        <v>0.70028877899999997</v>
+        <v>0.75</v>
       </c>
       <c r="F13" s="83">
         <v>4.4999999999999998E-2</v>
@@ -19584,7 +19588,7 @@
         <v>820</v>
       </c>
       <c r="L13" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M13" s="83" t="s">
         <v>807</v>
@@ -19618,7 +19622,7 @@
         <v>820</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M14" s="83" t="s">
         <v>807</v>
@@ -19652,7 +19656,7 @@
         <v>820</v>
       </c>
       <c r="L15" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M15" s="83" t="s">
         <v>807</v>
@@ -19686,7 +19690,7 @@
         <v>820</v>
       </c>
       <c r="L16" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M16" s="83" t="s">
         <v>807</v>
@@ -19720,7 +19724,7 @@
         <v>820</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M17" s="83" t="s">
         <v>807</v>
@@ -19750,7 +19754,7 @@
         <v>820</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M18" s="83" t="s">
         <v>807</v>
@@ -19782,7 +19786,7 @@
         <v>820</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M19" s="83" t="s">
         <v>807</v>
@@ -19814,7 +19818,7 @@
         <v>820</v>
       </c>
       <c r="L20" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M20" s="83" t="s">
         <v>807</v>
@@ -19846,7 +19850,7 @@
         <v>820</v>
       </c>
       <c r="L21" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M21" s="83" t="s">
         <v>807</v>
@@ -19878,7 +19882,7 @@
         <v>820</v>
       </c>
       <c r="L22" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M22" s="83" t="s">
         <v>807</v>
@@ -19910,7 +19914,7 @@
         <v>820</v>
       </c>
       <c r="L23" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M23" s="83" t="s">
         <v>807</v>
@@ -19942,7 +19946,7 @@
         <v>820</v>
       </c>
       <c r="L24" s="83" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="M24" s="83" t="s">
         <v>807</v>
@@ -19963,7 +19967,9 @@
       <c r="E29" s="79">
         <v>0.7</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G29" s="79"/>
       <c r="H29" s="79"/>
       <c r="I29" s="79"/>
@@ -19995,7 +20001,9 @@
       <c r="E30" s="79">
         <v>0.7</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G30" s="79">
         <v>50</v>
       </c>
@@ -20027,7 +20035,9 @@
       <c r="E31" s="79">
         <v>0.7</v>
       </c>
-      <c r="F31" s="79"/>
+      <c r="F31" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G31" s="79"/>
       <c r="H31" s="79"/>
       <c r="I31" s="79"/>
@@ -20057,7 +20067,9 @@
       <c r="E32" s="79">
         <v>0.7</v>
       </c>
-      <c r="F32" s="79"/>
+      <c r="F32" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -20087,7 +20099,9 @@
       <c r="E33" s="79">
         <v>0.7</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="F33" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
@@ -20117,7 +20131,9 @@
       <c r="E34" s="79">
         <v>0.7</v>
       </c>
-      <c r="F34" s="79"/>
+      <c r="F34" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G34" s="79">
         <v>50</v>
       </c>
@@ -20149,7 +20165,9 @@
       <c r="E35" s="79">
         <v>0.7</v>
       </c>
-      <c r="F35" s="79"/>
+      <c r="F35" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G35" s="79">
         <v>50</v>
       </c>
@@ -20181,7 +20199,9 @@
       <c r="E36" s="79">
         <v>0.7</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G36" s="79">
         <v>50</v>
       </c>
@@ -20213,7 +20233,9 @@
       <c r="E37" s="79">
         <v>0.64</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="83">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="G37" s="79"/>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>

--- a/模板整理/03 模块/政策表.xlsx
+++ b/模板整理/03 模块/政策表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BED3D-1579-7148-B4D6-A158D08CBB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25AECBD-9C34-534C-87B1-FDE65AD103C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="740" windowWidth="18340" windowHeight="16960" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11060" yWindow="740" windowWidth="18340" windowHeight="16880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特价机整理" sheetId="2" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="852">
   <si>
     <t>型号</t>
   </si>
@@ -2710,12 +2710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R1700FWI</t>
-  </si>
-  <si>
-    <t>JSQ31-VJSAi（钣金）</t>
-  </si>
-  <si>
     <t>蒸烤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2801,6 +2795,18 @@
   </si>
   <si>
     <t>2025.10.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR1800HF1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR1600HF2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSQ31-VJSAi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3683,13 +3689,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K51" sqref="F1:K51"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36">
+    <row r="1" spans="1:11" ht="34">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -5378,7 +5387,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5678,7 +5687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F526CBB2-F548-4547-B493-2F603F19F9C2}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -17180,9 +17189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F2A2C0-B2E1-A747-96BB-51E2E2A2466C}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="91" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -17225,7 +17234,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>801</v>
@@ -17506,7 +17515,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="83" t="s">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="B10" s="83">
         <v>4732</v>
@@ -17589,7 +17598,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="83" t="s">
-        <v>16</v>
+        <v>840</v>
       </c>
       <c r="B12" s="83">
         <v>5123</v>
@@ -18002,7 +18011,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="83" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B31" s="83"/>
       <c r="C31" s="83"/>
@@ -18094,7 +18103,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="83" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B34" s="83"/>
       <c r="C34" s="83"/>
@@ -18107,7 +18116,7 @@
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I34" s="83"/>
       <c r="J34" s="83"/>
@@ -18203,10 +18212,10 @@
         <v>100</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I37" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J37" s="83"/>
       <c r="K37" s="83" t="s">
@@ -18237,10 +18246,10 @@
         <v>100</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J38" s="83"/>
       <c r="K38" s="83" t="s">
@@ -18271,10 +18280,10 @@
         <v>100</v>
       </c>
       <c r="H39" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I39" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J39" s="83"/>
       <c r="K39" s="83" t="s">
@@ -18305,10 +18314,10 @@
         <v>100</v>
       </c>
       <c r="H40" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I40" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J40" s="83"/>
       <c r="K40" s="83" t="s">
@@ -18324,7 +18333,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="83" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B41" s="83"/>
       <c r="C41" s="83"/>
@@ -18342,7 +18351,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J41" s="83"/>
       <c r="K41" s="83" t="s">
@@ -18378,7 +18387,7 @@
       </c>
       <c r="H42" s="83"/>
       <c r="I42" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J42" s="83"/>
       <c r="K42" s="83" t="s">
@@ -18428,7 +18437,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="83" t="s">
-        <v>15</v>
+        <v>849</v>
       </c>
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
@@ -18720,7 +18729,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="83" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B53" s="83"/>
       <c r="C53" s="83"/>
@@ -18765,7 +18774,7 @@
       <c r="L57" s="83"/>
       <c r="M57" s="83"/>
       <c r="N57" s="96" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -18786,7 +18795,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="83" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="B59" s="83"/>
       <c r="C59" s="83">
@@ -18954,7 +18963,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="83" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="B64" s="83"/>
       <c r="C64" s="83">
@@ -19060,7 +19069,7 @@
         <v>7999</v>
       </c>
       <c r="E67" s="83">
-        <v>0.48599999999999999</v>
+        <v>7999</v>
       </c>
       <c r="F67" s="83">
         <v>800</v>
@@ -19082,7 +19091,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="83" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B68" s="83"/>
       <c r="C68" s="83"/>
@@ -19108,7 +19117,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="83" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B69" s="83"/>
       <c r="C69" s="83"/>
@@ -19147,8 +19156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794F5890-65EA-8F4B-B100-53427A44469E}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -19188,7 +19197,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>801</v>
@@ -19205,7 +19214,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="83" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -19226,7 +19235,7 @@
         <v>820</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M2" s="83" t="s">
         <v>807</v>
@@ -19258,7 +19267,7 @@
         <v>820</v>
       </c>
       <c r="L3" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M3" s="83" t="s">
         <v>807</v>
@@ -19288,7 +19297,7 @@
         <v>820</v>
       </c>
       <c r="L4" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M4" s="83" t="s">
         <v>807</v>
@@ -19297,7 +19306,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="83" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -19310,7 +19319,7 @@
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="83" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I5" s="83"/>
       <c r="J5" s="83"/>
@@ -19318,7 +19327,7 @@
         <v>820</v>
       </c>
       <c r="L5" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M5" s="83" t="s">
         <v>807</v>
@@ -19348,7 +19357,7 @@
         <v>820</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M6" s="83" t="s">
         <v>807</v>
@@ -19378,7 +19387,7 @@
         <v>820</v>
       </c>
       <c r="L7" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M7" s="83" t="s">
         <v>807</v>
@@ -19406,17 +19415,17 @@
         <v>100</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I8" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="83" t="s">
         <v>820</v>
       </c>
       <c r="L8" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M8" s="83" t="s">
         <v>807</v>
@@ -19440,17 +19449,17 @@
         <v>100</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I9" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J9" s="83"/>
       <c r="K9" s="83" t="s">
         <v>820</v>
       </c>
       <c r="L9" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M9" s="83" t="s">
         <v>807</v>
@@ -19474,17 +19483,17 @@
         <v>100</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J10" s="83"/>
       <c r="K10" s="83" t="s">
         <v>820</v>
       </c>
       <c r="L10" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M10" s="83" t="s">
         <v>807</v>
@@ -19508,17 +19517,17 @@
         <v>100</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I11" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="83" t="s">
         <v>820</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M11" s="83" t="s">
         <v>807</v>
@@ -19527,7 +19536,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="83" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
@@ -19545,14 +19554,14 @@
         <v>10</v>
       </c>
       <c r="I12" s="83" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J12" s="83"/>
       <c r="K12" s="83" t="s">
         <v>820</v>
       </c>
       <c r="L12" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M12" s="83" t="s">
         <v>807</v>
@@ -19561,7 +19570,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="83" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="83">
@@ -19581,14 +19590,14 @@
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="83" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J13" s="83"/>
       <c r="K13" s="83" t="s">
         <v>820</v>
       </c>
       <c r="L13" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M13" s="83" t="s">
         <v>807</v>
@@ -19622,7 +19631,7 @@
         <v>820</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M14" s="83" t="s">
         <v>807</v>
@@ -19656,7 +19665,7 @@
         <v>820</v>
       </c>
       <c r="L15" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M15" s="83" t="s">
         <v>807</v>
@@ -19690,7 +19699,7 @@
         <v>820</v>
       </c>
       <c r="L16" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M16" s="83" t="s">
         <v>807</v>
@@ -19724,7 +19733,7 @@
         <v>820</v>
       </c>
       <c r="L17" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M17" s="83" t="s">
         <v>807</v>
@@ -19754,7 +19763,7 @@
         <v>820</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M18" s="83" t="s">
         <v>807</v>
@@ -19786,7 +19795,7 @@
         <v>820</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M19" s="83" t="s">
         <v>807</v>
@@ -19818,7 +19827,7 @@
         <v>820</v>
       </c>
       <c r="L20" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M20" s="83" t="s">
         <v>807</v>
@@ -19850,7 +19859,7 @@
         <v>820</v>
       </c>
       <c r="L21" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M21" s="83" t="s">
         <v>807</v>
@@ -19882,7 +19891,7 @@
         <v>820</v>
       </c>
       <c r="L22" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M22" s="83" t="s">
         <v>807</v>
@@ -19914,7 +19923,7 @@
         <v>820</v>
       </c>
       <c r="L23" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M23" s="83" t="s">
         <v>807</v>
@@ -19923,7 +19932,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="83" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B24" s="83"/>
       <c r="C24" s="83"/>
@@ -19946,7 +19955,7 @@
         <v>820</v>
       </c>
       <c r="L24" s="83" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M24" s="83" t="s">
         <v>807</v>
@@ -19955,7 +19964,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="79" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="79">
@@ -19984,12 +19993,12 @@
         <v>816</v>
       </c>
       <c r="N29" s="93" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="79" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="79">
@@ -20023,7 +20032,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="79" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B31" s="79"/>
       <c r="C31" s="79">
@@ -20055,7 +20064,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="79" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B32" s="79"/>
       <c r="C32" s="79">
@@ -20087,7 +20096,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="79" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B33" s="79"/>
       <c r="C33" s="79">
@@ -20119,7 +20128,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="79" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B34" s="79"/>
       <c r="C34" s="79">
@@ -20153,7 +20162,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="79" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B35" s="79"/>
       <c r="C35" s="79">
@@ -20187,7 +20196,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="79" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B36" s="79"/>
       <c r="C36" s="79">
@@ -20221,7 +20230,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="79" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B37" s="79"/>
       <c r="C37" s="79">
@@ -20277,7 +20286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8604592-951A-8942-9102-4C50A89BA426}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="89" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -20319,7 +20328,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K1" s="75" t="s">
         <v>801</v>
